--- a/Evaluation/Results/RQ3/AAD.xlsx
+++ b/Evaluation/Results/RQ3/AAD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrdad\Documents\rabbitrun\meetings\Extending Paper 2\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrdad\Documents\rabbitrun\meetings\Paper 3 - GenTC\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2505D9C-E4CB-4974-A4EC-9AEF4C82F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2BF74-BA68-49E1-B10D-7D8E0EBC784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>0.15615592391099528</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C3" s="1">
         <v>0.05</v>
@@ -539,7 +539,7 @@
         <v>4.3847356393873403E-2</v>
       </c>
       <c r="I3" s="4">
-        <v>5.4638289578109782E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
